--- a/assets/slides/acct3210/S4/Lecture4q4q5.xlsx
+++ b/assets/slides/acct3210/S4/Lecture4q4q5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E539662-BFC6-D849-8A14-54C7F3C676B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDA354-7A7B-AE42-8E7C-FCDF33753888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" activeTab="13" xr2:uid="{3FBB5B57-5103-AD40-89B4-550556BE03F1}"/>
   </bookViews>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="86">
   <si>
     <t>Choice Variables</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t xml:space="preserve">Good luck. This problem is included to illustrate places where Excel is insufficient. </t>
+  </si>
+  <si>
+    <t>Note 2: We are using incremental cost in place of the marginal cost to avoid some difficult math.</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1747,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,7 +1869,7 @@
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1907,6 +1910,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
